--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -2970,7 +2970,7 @@
         <v>44593</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +874,7 @@
         <v>44032</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44254</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44304</v>
       </c>
       <c r="B228">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2971,6 +2971,14 @@
       </c>
       <c r="B323">
         <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -874,7 +874,7 @@
         <v>44032</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,23 +2583,23 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -2607,23 +2607,23 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,39 +2647,39 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,23 +2839,23 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -2863,23 +2863,23 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,15 +2903,15 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B316">
         <v>3</v>
@@ -2919,23 +2919,23 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B319">
         <v>4</v>
@@ -2943,15 +2943,15 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B320">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -2959,23 +2959,23 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44593</v>
+        <v>44597</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B324">
         <v>1</v>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1826,7 +1826,7 @@
         <v>44251</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,23 +2583,23 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -2607,23 +2607,23 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,39 +2647,39 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,23 +2839,23 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -2863,23 +2863,23 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B310">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,15 +2903,15 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B316">
         <v>3</v>
@@ -2919,23 +2919,23 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B317">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B319">
         <v>4</v>
@@ -2943,15 +2943,15 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -2959,26 +2959,42 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44597</v>
+        <v>44593</v>
       </c>
       <c r="B323">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
         <v>44598</v>
       </c>
-      <c r="B324">
-        <v>1</v>
+      <c r="B326">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -1826,7 +1826,7 @@
         <v>44251</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44254</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2997,6 +2997,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,7 +834,7 @@
         <v>44027</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44154</v>
+        <v>44148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44171</v>
+        <v>44157</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44179</v>
+        <v>44173</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44372</v>
+        <v>44367</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,42 +2967,74 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44596</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B325">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
         <v>44600</v>
       </c>
-      <c r="B327">
-        <v>1</v>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,7 +1834,7 @@
         <v>44251</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44254</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3035,6 +3035,14 @@
       </c>
       <c r="B331">
         <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3045,6 +3045,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,7 +1834,7 @@
         <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3051,6 +3051,14 @@
       </c>
       <c r="B333">
         <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1850,7 @@
         <v>44254</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2983,7 +2983,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,41 +3023,49 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
         <v>44608</v>
       </c>
-      <c r="B334">
+      <c r="B335">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -1850,7 +1850,7 @@
         <v>44254</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +874,7 @@
         <v>44032</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3067,6 +3067,30 @@
       </c>
       <c r="B335">
         <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3090,6 +3090,14 @@
         <v>44617</v>
       </c>
       <c r="B338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B339">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3099,6 +3099,14 @@
       </c>
       <c r="B339">
         <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3109,6 +3109,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3131,6 +3131,14 @@
       </c>
       <c r="B343">
         <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3138,6 +3138,22 @@
         <v>44625</v>
       </c>
       <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B346">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3157,6 +3157,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3173,6 +3173,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44140</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44142</v>
+        <v>44146</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44148</v>
+        <v>44154</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44227</v>
+        <v>44230</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44378</v>
+        <v>44383</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="B349">
         <v>1</v>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44154</v>
+        <v>44148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44171</v>
+        <v>44157</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44179</v>
+        <v>44173</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44372</v>
+        <v>44367</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44634</v>
+        <v>44628</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,9 +3175,17 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
         <v>44648</v>
       </c>
-      <c r="B349">
+      <c r="B350">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44140</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44142</v>
+        <v>44146</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44148</v>
+        <v>44154</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44227</v>
+        <v>44230</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44378</v>
+        <v>44383</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="B350">
         <v>1</v>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3189,6 +3189,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B354"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44154</v>
+        <v>44148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44171</v>
+        <v>44157</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44179</v>
+        <v>44173</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44372</v>
+        <v>44367</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44634</v>
+        <v>44628</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44654</v>
+        <v>44648</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,9 +3215,65 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
         <v>44673</v>
       </c>
-      <c r="B354">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>44693</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>44704</v>
+      </c>
+      <c r="B361">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3274,6 +3274,14 @@
         <v>44704</v>
       </c>
       <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B362">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44140</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44142</v>
+        <v>44146</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44148</v>
+        <v>44154</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44227</v>
+        <v>44230</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44378</v>
+        <v>44383</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44673</v>
+        <v>44685</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44685</v>
+        <v>44691</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44693</v>
+        <v>44696</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44696</v>
+        <v>44704</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,17 +3271,9 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44704</v>
+        <v>44734</v>
       </c>
       <c r="B361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="2">
-        <v>44734</v>
-      </c>
-      <c r="B362">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44154</v>
+        <v>44148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44171</v>
+        <v>44157</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44179</v>
+        <v>44173</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44372</v>
+        <v>44367</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44634</v>
+        <v>44628</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44654</v>
+        <v>44648</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44685</v>
+        <v>44673</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44696</v>
+        <v>44693</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44704</v>
+        <v>44696</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,9 +3271,17 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
+        <v>44704</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
         <v>44734</v>
       </c>
-      <c r="B361">
+      <c r="B362">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3282,6 +3282,22 @@
         <v>44734</v>
       </c>
       <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B364">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44140</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44142</v>
+        <v>44146</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44148</v>
+        <v>44154</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44227</v>
+        <v>44230</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44378</v>
+        <v>44383</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44673</v>
+        <v>44685</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44685</v>
+        <v>44691</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44693</v>
+        <v>44696</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44696</v>
+        <v>44704</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44704</v>
+        <v>44734</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44734</v>
+        <v>44744</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44746</v>
+        <v>44759</v>
       </c>
       <c r="B364">
         <v>1</v>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44154</v>
+        <v>44148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44171</v>
+        <v>44157</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44179</v>
+        <v>44173</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44372</v>
+        <v>44367</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44634</v>
+        <v>44628</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44654</v>
+        <v>44648</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44685</v>
+        <v>44673</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44696</v>
+        <v>44693</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44704</v>
+        <v>44696</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44734</v>
+        <v>44704</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44744</v>
+        <v>44734</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44746</v>
+        <v>44744</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,9 +3295,25 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
         <v>44759</v>
       </c>
-      <c r="B364">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B366">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44140</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44142</v>
+        <v>44146</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44148</v>
+        <v>44154</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44227</v>
+        <v>44230</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,47 +1815,47 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44378</v>
+        <v>44383</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44673</v>
+        <v>44685</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44685</v>
+        <v>44691</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44693</v>
+        <v>44696</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44696</v>
+        <v>44704</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44704</v>
+        <v>44734</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44734</v>
+        <v>44744</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44746</v>
+        <v>44759</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44759</v>
+        <v>44765</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44765</v>
+        <v>44769</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44154</v>
+        <v>44148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44171</v>
+        <v>44157</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44179</v>
+        <v>44173</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,47 +1815,47 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44372</v>
+        <v>44367</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,23 +2591,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -2615,23 +2615,23 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,39 +2655,39 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,23 +2847,23 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -2871,23 +2871,23 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,15 +2911,15 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -2927,23 +2927,23 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B320">
         <v>4</v>
@@ -2951,15 +2951,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,31 +2991,31 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -3023,47 +3023,47 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,23 +3151,23 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44634</v>
+        <v>44628</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44654</v>
+        <v>44648</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44685</v>
+        <v>44673</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44696</v>
+        <v>44693</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44704</v>
+        <v>44696</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44734</v>
+        <v>44704</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44744</v>
+        <v>44734</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44746</v>
+        <v>44744</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44759</v>
+        <v>44746</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44765</v>
+        <v>44759</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -3311,9 +3311,17 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
         <v>44769</v>
       </c>
-      <c r="B366">
+      <c r="B367">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -1834,7 +1834,7 @@
         <v>44251</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,7 +1834,7 @@
         <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44254</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3323,6 +3323,14 @@
       </c>
       <c r="B367">
         <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1850,7 @@
         <v>44254</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3330,6 +3330,14 @@
         <v>44777</v>
       </c>
       <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B369">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2034,7 +2034,7 @@
         <v>44281</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44383</v>
+        <v>44380</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -2599,23 +2599,23 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -2623,23 +2623,23 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -2663,39 +2663,39 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -2855,23 +2855,23 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -2879,23 +2879,23 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -2919,15 +2919,15 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -2935,23 +2935,23 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B320">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B321">
         <v>4</v>
@@ -2959,15 +2959,15 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -2975,23 +2975,23 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -2999,31 +2999,31 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -3031,47 +3031,47 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -3087,15 +3087,15 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -3103,15 +3103,15 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -3159,23 +3159,23 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44634</v>
+        <v>44628</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44654</v>
+        <v>44648</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -3199,23 +3199,23 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44685</v>
+        <v>44673</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44696</v>
+        <v>44693</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44704</v>
+        <v>44696</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44734</v>
+        <v>44704</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44744</v>
+        <v>44734</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44746</v>
+        <v>44744</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44759</v>
+        <v>44746</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44765</v>
+        <v>44759</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -3319,25 +3319,33 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44769</v>
+        <v>44765</v>
       </c>
       <c r="B367">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44777</v>
+        <v>44769</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
         <v>44778</v>
       </c>
-      <c r="B369">
+      <c r="B370">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44140</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44142</v>
+        <v>44146</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44148</v>
+        <v>44154</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44227</v>
+        <v>44230</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44378</v>
+        <v>44380</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44380</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -2599,23 +2599,23 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -2623,23 +2623,23 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -2663,39 +2663,39 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -2855,23 +2855,23 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -2879,23 +2879,23 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -2919,15 +2919,15 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -2935,23 +2935,23 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B321">
         <v>4</v>
@@ -2959,15 +2959,15 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B322">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -2975,23 +2975,23 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -2999,31 +2999,31 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -3031,47 +3031,47 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B335">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -3087,15 +3087,15 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -3103,15 +3103,15 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -3159,23 +3159,23 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -3199,23 +3199,23 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="B353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44673</v>
+        <v>44685</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44685</v>
+        <v>44691</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44693</v>
+        <v>44696</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44696</v>
+        <v>44704</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44704</v>
+        <v>44734</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44734</v>
+        <v>44744</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44746</v>
+        <v>44759</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44759</v>
+        <v>44765</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -3319,23 +3319,23 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44765</v>
+        <v>44769</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44769</v>
+        <v>44777</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44778</v>
+        <v>44788</v>
       </c>
       <c r="B370">
         <v>1</v>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2210,7 +2210,7 @@
         <v>44304</v>
       </c>
       <c r="B228">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3346,6 +3346,22 @@
         <v>44788</v>
       </c>
       <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B372">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2210,7 +2210,7 @@
         <v>44304</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3362,6 +3362,14 @@
         <v>44792</v>
       </c>
       <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B373">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44154</v>
+        <v>44148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44171</v>
+        <v>44157</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44179</v>
+        <v>44173</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B212">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B228">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44367</v>
+        <v>44364</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44372</v>
+        <v>44367</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44376</v>
+        <v>44372</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44380</v>
+        <v>44378</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44383</v>
+        <v>44380</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44392</v>
+        <v>44386</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -2599,23 +2599,23 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44399</v>
+        <v>44397</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -2623,23 +2623,23 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44414</v>
+        <v>44408</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44419</v>
+        <v>44414</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -2663,39 +2663,39 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44426</v>
+        <v>44420</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44429</v>
+        <v>44426</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44444</v>
+        <v>44429</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44446</v>
+        <v>44444</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44448</v>
+        <v>44446</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44460</v>
+        <v>44457</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44463</v>
+        <v>44460</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44492</v>
+        <v>44490</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44551</v>
+        <v>44528</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44562</v>
+        <v>44560</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -2855,23 +2855,23 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -2879,23 +2879,23 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -2919,15 +2919,15 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -2935,23 +2935,23 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B320">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B321">
         <v>4</v>
@@ -2959,15 +2959,15 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -2975,23 +2975,23 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -2999,31 +2999,31 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44600</v>
+        <v>44598</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44602</v>
+        <v>44600</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -3031,47 +3031,47 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44607</v>
+        <v>44605</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -3087,15 +3087,15 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44617</v>
+        <v>44615</v>
       </c>
       <c r="B338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -3103,15 +3103,15 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -3159,23 +3159,23 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44634</v>
+        <v>44628</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44643</v>
+        <v>44635</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44654</v>
+        <v>44648</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -3199,23 +3199,23 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44663</v>
+        <v>44654</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44671</v>
+        <v>44663</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44685</v>
+        <v>44673</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44691</v>
+        <v>44685</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44696</v>
+        <v>44693</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44704</v>
+        <v>44696</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44734</v>
+        <v>44704</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44744</v>
+        <v>44734</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44746</v>
+        <v>44744</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44759</v>
+        <v>44746</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44765</v>
+        <v>44759</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -3319,23 +3319,23 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44769</v>
+        <v>44765</v>
       </c>
       <c r="B367">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44777</v>
+        <v>44769</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44788</v>
+        <v>44778</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44790</v>
+        <v>44788</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44792</v>
+        <v>44790</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,9 +3367,25 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
         <v>44802</v>
       </c>
-      <c r="B373">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>44808</v>
+      </c>
+      <c r="B375">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3386,6 +3386,30 @@
         <v>44808</v>
       </c>
       <c r="B375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B378">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2218,7 +2218,7 @@
         <v>44304</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3410,6 +3410,14 @@
         <v>44815</v>
       </c>
       <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B379">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_madrededios.xlsx
+++ b/regiones/fallecidos_madrededios.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>44039</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1183,15 +1183,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1207,15 +1207,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -1255,15 +1255,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,23 +1327,23 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44118</v>
+        <v>44122</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44128</v>
+        <v>44130</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,31 +1407,31 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44134</v>
+        <v>44140</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44140</v>
+        <v>44142</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44142</v>
+        <v>44146</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44148</v>
+        <v>44154</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1511,23 +1511,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44179</v>
+        <v>44182</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44187</v>
+        <v>44190</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44190</v>
+        <v>44194</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44198</v>
+        <v>44202</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1599,71 +1599,71 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -1703,15 +1703,15 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44227</v>
+        <v>44230</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1743,31 +1743,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44243</v>
+        <v>44246</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1799,15 +1799,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -1935,79 +1935,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -2071,47 +2071,47 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -2119,111 +2119,111 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -2231,39 +2231,39 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -2279,79 +2279,79 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="B245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -2423,23 +2423,23 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44334</v>
+        <v>44336</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -2447,15 +2447,15 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -2535,23 +2535,23 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44378</v>
+        <v>44380</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44380</v>
+        <v>44383</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44386</v>
+        <v>44392</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -2599,23 +2599,23 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="B278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -2623,23 +2623,23 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44399</v>
+        <v>44404</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44408</v>
+        <v>44414</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -2663,39 +2663,39 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44429</v>
+        <v>44444</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44528</v>
+        <v>44551</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -2855,23 +2855,23 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44566</v>
+        <v>44572</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -2879,23 +2879,23 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -2919,15 +2919,15 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -2935,23 +2935,23 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B321">
         <v>4</v>
@@ -2959,15 +2959,15 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B322">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -2975,23 +2975,23 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -2999,31 +2999,31 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -3031,47 +3031,47 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B332">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B335">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -3087,15 +3087,15 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -3103,15 +3103,15 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -3159,23 +3159,23 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44628</v>
+        <v>44634</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44635</v>
+        <v>44643</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44648</v>
+        <v>44654</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -3199,23 +3199,23 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44654</v>
+        <v>44663</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="B353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44673</v>
+        <v>44685</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44685</v>
+        <v>44691</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44693</v>
+        <v>44696</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44696</v>
+        <v>44704</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44704</v>
+        <v>44734</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44734</v>
+        <v>44744</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44746</v>
+        <v>44759</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44759</v>
+        <v>44765</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -3319,23 +3319,23 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44765</v>
+        <v>44769</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44769</v>
+        <v>44777</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44778</v>
+        <v>44788</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44788</v>
+        <v>44790</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44790</v>
+        <v>44792</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44792</v>
+        <v>44802</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -3375,23 +3375,23 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44802</v>
+        <v>44808</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44808</v>
+        <v>44811</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44811</v>
+        <v>44814</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -3407,17 +3407,9 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44815</v>
+        <v>44817</v>
       </c>
       <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="2">
-        <v>44817</v>
-      </c>
-      <c r="B379">
         <v>1</v>
       </c>
     </row>
